--- a/biology/Botanique/Forêts_mythiques/Forêts_mythiques.xlsx
+++ b/biology/Botanique/Forêts_mythiques/Forêts_mythiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_mythiques</t>
+          <t>Forêts_mythiques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt est très présente dans de nombreux mythes et mythes fondateurs des peuples aborigènes de pays tropicaux et équatoriaux. Les rituels d'initiation s'y déroulent parfois et/ou y font référence.
 Elle a eu, avec l'homme sauvage, une grande importance aussi dans certains pays européens du centre et de l'est.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_mythiques</t>
+          <t>Forêts_mythiques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>En Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des forêts plus ou moins mythiques ont traversé l'Histoire, certaines avec des bases historiques récentes reprises de l'époque gallo-romaine au siècle des lumières :
 forêt charbonnière,
 forêt du gâvre ,
 forêt hercynienne,
-forêt de Brocéliande Les auteurs anciens étant muets sur la localisation, il existe plusieurs hypothèses de valeurs inégales pour la situer[1],[2].
+forêt de Brocéliande Les auteurs anciens étant muets sur la localisation, il existe plusieurs hypothèses de valeurs inégales pour la situer,.
 D'autres forêts mythiques ont des origines plus douteuses :
 Forêt de Scissy, qui aurait existé dans la baie du mont Saint-Michel avant qu'elle soit ennoyée par la mer.
 La forêt était aussi le « désert » où certains ermites et moines-ermites vivaient, priaient et méditaient.
